--- a/upload/report/daftar_hadir/daftar_hadir.xlsx
+++ b/upload/report/daftar_hadir/daftar_hadir.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ICT\upload\report\materi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\useraccountname\Documents\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4A32CB-0DEA-4262-B8B5-7223E97A206C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AAA115-5F34-40D4-9F5F-C62A00107103}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9480" yWindow="3345" windowWidth="13740" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,13 +82,13 @@
     <t>SD Hegarmanah</t>
   </si>
   <si>
-    <t>Paijo Sr.</t>
-  </si>
-  <si>
     <t>Lokasi Tour</t>
   </si>
   <si>
     <t>Bandung</t>
+  </si>
+  <si>
+    <t>Paijo Alm.</t>
   </si>
 </sst>
 </file>
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:H12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,7 +965,7 @@
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
         <v>17</v>
@@ -991,13 +991,13 @@
         <v>44051</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1017,13 +1017,13 @@
         <v>44051</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1037,13 +1037,13 @@
         <v>44051</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1057,13 +1057,13 @@
         <v>44051</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1077,13 +1077,13 @@
         <v>44051</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
         <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1097,13 +1097,13 @@
         <v>44051</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
         <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1117,13 +1117,13 @@
         <v>44051</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1137,13 +1137,13 @@
         <v>44051</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1157,13 +1157,13 @@
         <v>44051</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1177,13 +1177,13 @@
         <v>44051</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1197,13 +1197,13 @@
         <v>44051</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
         <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
